--- a/sales_records.xlsx
+++ b/sales_records.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilma\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilma\Desktop\generalpython\validations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8B1E47-5B89-4435-AF86-9B9F5CED34DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8328F6F-0738-4986-A333-365E00DA7232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23100" yWindow="1110" windowWidth="15375" windowHeight="7875" xr2:uid="{CBCCC4F3-69F1-4E13-BDCC-ECEF724BD51E}"/>
+    <workbookView xWindow="-24300" yWindow="1005" windowWidth="21195" windowHeight="10650" xr2:uid="{CBCCC4F3-69F1-4E13-BDCC-ECEF724BD51E}"/>
   </bookViews>
   <sheets>
     <sheet name="records" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,82 +454,82 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>2345</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>23.9</v>
       </c>
       <c r="D2" s="1">
         <v>0.1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>21.509999999999998</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2345</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>1.99</v>
       </c>
       <c r="D3" s="1">
         <v>0.1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>1.7909999999999999</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>1234</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>56</v>
       </c>
       <c r="D4" s="1">
         <v>0.1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>50.4</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>1234</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>20.399999999999999</v>
       </c>
       <c r="D5" s="1">
         <v>0.1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>18.36</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>45</v>
       </c>
     </row>
